--- a/Calculo Mell.xlsx
+++ b/Calculo Mell.xlsx
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:I7"/>
+  <dimension ref="D4:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,6 +477,46 @@
         <v>18</v>
       </c>
     </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
